--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://energyinnovation.sharepoint.com/sites/EUEPSModeling/Shared Documents/InputData_Artelys/elec/MPCbS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\European Union\Models\eps-eu\InputData\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="8_{5FAC35C2-7520-4167-88FE-7C7A5C381CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{64BBEB6D-9047-4B19-BD3C-344A875FB80E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9914D0F2-E9AA-47F2-92BA-4EACB2EC18F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="1" activeTab="4" xr2:uid="{71D11893-D720-4AA3-BC8D-614DC6713DDA}"/>
+    <workbookView xWindow="22815" yWindow="1515" windowWidth="26730" windowHeight="20460" xr2:uid="{71D11893-D720-4AA3-BC8D-614DC6713DDA}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -810,7 +810,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -888,18 +888,14 @@
     <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="13" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1036,9 +1032,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1076,7 +1072,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1182,7 +1178,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1324,7 +1320,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1334,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF809FC-3DA0-4158-BA09-B02EF0382DDC}">
   <dimension ref="B11:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
@@ -2462,10 +2458,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2478,7 +2474,7 @@
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="2"/>
@@ -2487,25 +2483,25 @@
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="53">
+      <c r="B2" s="50">
         <v>9000000000000</v>
       </c>
       <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="53">
+        <v>69</v>
+      </c>
+      <c r="B3" s="50">
         <v>9000000000000</v>
       </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="53">
+        <v>70</v>
+      </c>
+      <c r="B4" s="50">
         <v>9000000000000</v>
       </c>
       <c r="C4" s="2"/>
@@ -2514,38 +2510,37 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="53">
+      <c r="B5" s="50">
         <v>9000000000000</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="51">
         <v>0</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="53">
+      <c r="B7" s="50">
         <f>'Wind and PV'!G29</f>
         <v>2155655.0449999999</v>
       </c>
-      <c r="C7" s="2"/>
+      <c r="C7" s="3"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="51">
         <f>'Wind and PV'!B34</f>
         <v>7578472.2000000011</v>
       </c>
@@ -2556,7 +2551,7 @@
       <c r="A9" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="51">
         <f>'Wind and PV'!B33</f>
         <v>30000</v>
       </c>
@@ -2567,7 +2562,7 @@
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="53">
+      <c r="B10" s="50">
         <f>MAX(Biomass!B7:G7)</f>
         <v>44272.706426580793</v>
       </c>
@@ -2578,7 +2573,7 @@
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="51">
         <f>Geothermal!B29</f>
         <v>775</v>
       </c>
@@ -2587,9 +2582,9 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="53">
+        <v>67</v>
+      </c>
+      <c r="B12" s="50">
         <v>9000000000000</v>
       </c>
       <c r="C12" s="2"/>
@@ -2597,50 +2592,48 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="50">
+        <v>9000000000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="50">
+        <v>9000000000000</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="53">
+      <c r="B15" s="50">
         <f>SUM('Wind and PV'!G27:G28)</f>
         <v>1303735.9667</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="53">
-        <v>9000000000000</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="53">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2"/>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B16" s="53">
+        <v>15</v>
+      </c>
+      <c r="B16" s="50">
         <v>9000000000000</v>
       </c>
-      <c r="C16" s="5"/>
+      <c r="C16" s="3"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="53">
+        <v>65</v>
+      </c>
+      <c r="B17" s="50">
         <v>9000000000000</v>
       </c>
       <c r="C17" s="5"/>
@@ -2648,18 +2641,19 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="53">
-        <v>9000000000000</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="B18" s="50">
+        <v>0</v>
+      </c>
+      <c r="C18" s="5"/>
       <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B19" s="50">
         <v>9000000000000</v>
       </c>
       <c r="G19" s="2"/>
@@ -2668,7 +2662,7 @@
       <c r="A20" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B20" s="50">
         <v>9000000000000</v>
       </c>
       <c r="G20" s="2"/>
@@ -2677,7 +2671,7 @@
       <c r="A21" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="55">
+      <c r="B21" s="52">
         <f>B10</f>
         <v>44272.706426580793</v>
       </c>
@@ -2687,7 +2681,7 @@
       <c r="A22" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="53">
+      <c r="B22" s="50">
         <v>9000000000000</v>
       </c>
       <c r="G22" s="2"/>
@@ -2696,7 +2690,7 @@
       <c r="A23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B23" s="53">
+      <c r="B23" s="50">
         <v>9000000000000</v>
       </c>
       <c r="G23" s="2"/>
@@ -2705,7 +2699,7 @@
       <c r="A24" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="53">
+      <c r="B24" s="50">
         <v>9000000000000</v>
       </c>
       <c r="G24" s="2"/>
@@ -2714,36 +2708,38 @@
       <c r="A25" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="53">
+      <c r="B25" s="50">
         <v>9000000000000</v>
       </c>
-      <c r="G25" s="19"/>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="56"/>
       <c r="G26" s="19"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2"/>
+      <c r="G27" s="19"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="47"/>
+      <c r="A29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="48"/>
+      <c r="A30" s="47"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="50"/>
+      <c r="A32" s="48"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
+      <c r="A33" s="5"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2751,15 +2747,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A08BDF573E2FFD46A5F05DED9AF68025" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f85c0eb68479ad8b8987805fd5b8836b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="00484652-42e1-479e-92f4-fb0efddcdf60" xmlns:ns3="41b1c9bf-5b6b-463b-ba12-a3b9bfbff0d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7dbc72841229da9eaa30ebb1456cd70" ns2:_="" ns3:_="">
     <xsd:import namespace="00484652-42e1-479e-92f4-fb0efddcdf60"/>
@@ -2982,6 +2969,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -2994,14 +2990,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D853B66E-86DF-4CEF-BE21-6123A53C3235}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E20FE3-FE02-4A96-8AC9-1BF4AD673560}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3020,6 +3008,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D853B66E-86DF-4CEF-BE21-6123A53C3235}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4FBB8B6C-F6C7-4F68-8844-F75C23DF433A}">
   <ds:schemaRefs>

--- a/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
+++ b/InputData/elec/MPCbS/Max Potential Capacity by Source.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\elec\MPCbS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\US\Models\eps-us\InputData\elec\MPCbS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D6EFB1-532C-499B-8BB2-D38B4746374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE59DCF4-C3ED-4DFD-8048-6B73D6458F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="23640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="100">
   <si>
     <t>Source:</t>
   </si>
@@ -331,6 +331,9 @@
   </si>
   <si>
     <t>hydrogen combined cycle</t>
+  </si>
+  <si>
+    <t>Heavy fuel oil and crude oil plants are not used in the US model.</t>
   </si>
 </sst>
 </file>
@@ -775,9 +778,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -905,6 +910,11 @@
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1343,7 +1353,7 @@
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1491,8 +1501,7 @@
         <v>57</v>
       </c>
       <c r="B16" s="14">
-        <f>B12</f>
-        <v>9000000000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1500,8 +1509,7 @@
         <v>58</v>
       </c>
       <c r="B17" s="14">
-        <f>B12</f>
-        <v>9000000000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
